--- a/data/trans_orig/P1414-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Dificultad-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5804</v>
+        <v>5047</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0009697449352177489</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.005559982448844926</v>
+        <v>0.004834782756470586</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -764,19 +764,19 @@
         <v>43827</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32630</v>
+        <v>31433</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59131</v>
+        <v>58698</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03917798475124615</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02916871704829999</v>
+        <v>0.02809870611051439</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05285911167476254</v>
+        <v>0.05247194665422316</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -785,19 +785,19 @@
         <v>44839</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32055</v>
+        <v>32536</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59744</v>
+        <v>59812</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02073391883959928</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01482240230328374</v>
+        <v>0.01504487381912069</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02762615014061201</v>
+        <v>0.02765747500907745</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>1042923</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1038131</v>
+        <v>1038888</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>1043935</v>
@@ -823,7 +823,7 @@
         <v>0.9990302550647823</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9944400175511547</v>
+        <v>0.9951652172435295</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -835,19 +835,19 @@
         <v>1074826</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1059522</v>
+        <v>1059955</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1086023</v>
+        <v>1087220</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9608220152487539</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9471408883252376</v>
+        <v>0.9475280533457774</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9708312829517001</v>
+        <v>0.9719012938894863</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1966</v>
@@ -856,19 +856,19 @@
         <v>2117749</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2102844</v>
+        <v>2102776</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2130533</v>
+        <v>2130052</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9792660811604007</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9723738498593879</v>
+        <v>0.9723425249909224</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9851775976967162</v>
+        <v>0.9849551261808792</v>
       </c>
     </row>
     <row r="6">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7604</v>
+        <v>7532</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00218932333684484</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007782398235045737</v>
+        <v>0.007708452837942436</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -981,19 +981,19 @@
         <v>22755</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14318</v>
+        <v>14674</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35657</v>
+        <v>35337</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02085031772378195</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01311948218497381</v>
+        <v>0.01344521844066913</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0326723836342926</v>
+        <v>0.03237873075571657</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -1002,19 +1002,19 @@
         <v>24894</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16489</v>
+        <v>16523</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37587</v>
+        <v>37322</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01203536025238867</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007971701848385403</v>
+        <v>0.007987961188473747</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01817166533268579</v>
+        <v>0.01804345984430077</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>974934</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>969469</v>
+        <v>969541</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>977073</v>
@@ -1040,7 +1040,7 @@
         <v>0.9978106766631551</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9922176017649543</v>
+        <v>0.9922915471620576</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1052,19 +1052,19 @@
         <v>1068605</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1055703</v>
+        <v>1056023</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1077042</v>
+        <v>1076686</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.979149682276218</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9673276163657075</v>
+        <v>0.9676212692442838</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9868805178150265</v>
+        <v>0.986554781559331</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1920</v>
@@ -1073,19 +1073,19 @@
         <v>2043539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2030846</v>
+        <v>2031111</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2051944</v>
+        <v>2051910</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9879646397476113</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9818283346673139</v>
+        <v>0.9819565401556992</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9920282981516145</v>
+        <v>0.9920120388115262</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>3087</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8485</v>
+        <v>9435</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003487963396760564</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001090368809930575</v>
+        <v>0.001096908923530473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009586280774416513</v>
+        <v>0.01065920300596727</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1198,19 +1198,19 @@
         <v>18937</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11408</v>
+        <v>11568</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28529</v>
+        <v>28827</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02162239778439782</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01302554418413329</v>
+        <v>0.01320895101193624</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03257549983686676</v>
+        <v>0.03291546745661388</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>22024</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13582</v>
+        <v>13952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33749</v>
+        <v>32822</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01250719386151458</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00771284029086997</v>
+        <v>0.007922968090206697</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01916563214562233</v>
+        <v>0.01863917634958594</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>882028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>876630</v>
+        <v>875680</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>884150</v>
+        <v>884144</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9965120366032394</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9904137192255837</v>
+        <v>0.9893407969940327</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9989096311900695</v>
+        <v>0.9989030910764696</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>803</v>
@@ -1269,19 +1269,19 @@
         <v>856859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>847267</v>
+        <v>846969</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>864388</v>
+        <v>864228</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9783776022156022</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9674245001631333</v>
+        <v>0.9670845325433864</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9869744558158668</v>
+        <v>0.9867910489880638</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1630</v>
@@ -1290,19 +1290,19 @@
         <v>1738887</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1727162</v>
+        <v>1728089</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1747329</v>
+        <v>1746959</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9874928061384854</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9808343678543775</v>
+        <v>0.981360823650414</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.99228715970913</v>
+        <v>0.9920770319097933</v>
       </c>
     </row>
     <row r="12">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6322</v>
+        <v>5626</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002276594316092203</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01256790043096463</v>
+        <v>0.01118456210614769</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1415,19 +1415,19 @@
         <v>6279</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2282</v>
+        <v>2895</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13092</v>
+        <v>13667</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01386986022258388</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005040205470425553</v>
+        <v>0.00639346665883441</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02891687018182002</v>
+        <v>0.03018778541244361</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1436,19 +1436,19 @@
         <v>7425</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3079</v>
+        <v>3106</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14364</v>
+        <v>14873</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007768238288559056</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003221773032536649</v>
+        <v>0.003249545641703986</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01502871887549463</v>
+        <v>0.01556131583375732</v>
       </c>
     </row>
     <row r="14">
@@ -1465,7 +1465,7 @@
         <v>501878</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>496701</v>
+        <v>497397</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>503023</v>
@@ -1474,7 +1474,7 @@
         <v>0.9977234056839078</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9874320995690343</v>
+        <v>0.9888154378938522</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1486,19 +1486,19 @@
         <v>446457</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>439644</v>
+        <v>439069</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>450454</v>
+        <v>449841</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9861301397774161</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9710831298181795</v>
+        <v>0.9698122145875574</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9949597945295744</v>
+        <v>0.9936065333411657</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>866</v>
@@ -1507,19 +1507,19 @@
         <v>948333</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>941394</v>
+        <v>940885</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>952679</v>
+        <v>952652</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9922317617114409</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9849712811245054</v>
+        <v>0.9844386841662427</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9967782269674633</v>
+        <v>0.996750454358296</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>7384</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3190</v>
+        <v>3157</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15865</v>
+        <v>14786</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002165911302634535</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.000935711633269532</v>
+        <v>0.0009260790168300586</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.004653755539854025</v>
+        <v>0.004337172580034578</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>85</v>
@@ -1632,19 +1632,19 @@
         <v>91798</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73706</v>
+        <v>73470</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113423</v>
+        <v>112204</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02594229274491832</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0208295904462984</v>
+        <v>0.02076277482099233</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0320535592826602</v>
+        <v>0.03170907189242322</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -1653,19 +1653,19 @@
         <v>99182</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79661</v>
+        <v>79754</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>121698</v>
+        <v>119757</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01427551713437372</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01146578465348833</v>
+        <v>0.01147916579044052</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0175162764932658</v>
+        <v>0.01723692541465029</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3401761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3393280</v>
+        <v>3394359</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3405955</v>
+        <v>3405988</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9978340886973655</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9953462444601459</v>
+        <v>0.9956628274199654</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9990642883667303</v>
+        <v>0.9990739209831699</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3196</v>
@@ -1703,19 +1703,19 @@
         <v>3446747</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3425122</v>
+        <v>3426341</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3464839</v>
+        <v>3465075</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9740577072550817</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9679464407173399</v>
+        <v>0.9682909281075768</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9791704095537017</v>
+        <v>0.9792372251790076</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6382</v>
@@ -1724,19 +1724,19 @@
         <v>6848508</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6825992</v>
+        <v>6827933</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6868029</v>
+        <v>6867936</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9857244828656263</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9824837235067343</v>
+        <v>0.9827630745853494</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9885342153465116</v>
+        <v>0.9885208342095592</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>7261</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3018</v>
+        <v>3144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14441</v>
+        <v>14530</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006437397354434571</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002675187102103944</v>
+        <v>0.002787178193782272</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01280272938167389</v>
+        <v>0.01288113844531282</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -2089,19 +2089,19 @@
         <v>75183</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59865</v>
+        <v>59318</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93898</v>
+        <v>94646</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05969018564680147</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04752814055282641</v>
+        <v>0.04709397577822234</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0745480582734358</v>
+        <v>0.07514185180110082</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -2110,19 +2110,19 @@
         <v>82445</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65675</v>
+        <v>63877</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>103168</v>
+        <v>101628</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03453100723523843</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02750729281897733</v>
+        <v>0.02675408162039693</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04321067829067193</v>
+        <v>0.04256583745717863</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>1120736</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1113556</v>
+        <v>1113467</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1124979</v>
+        <v>1124853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9935626026455654</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9871972706183256</v>
+        <v>0.9871188615546871</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9973248128978961</v>
+        <v>0.9972128218062177</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1120</v>
@@ -2160,19 +2160,19 @@
         <v>1184378</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1165663</v>
+        <v>1164915</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1199696</v>
+        <v>1200243</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9403098143531985</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9254519417265639</v>
+        <v>0.924858148198899</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9524718594471732</v>
+        <v>0.9529060242217773</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2179</v>
@@ -2181,19 +2181,19 @@
         <v>2305113</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2284390</v>
+        <v>2285930</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2321883</v>
+        <v>2323681</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9654689927647616</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9567893217093284</v>
+        <v>0.957434162542821</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9724927071810229</v>
+        <v>0.9732459183796031</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>3651</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10341</v>
+        <v>11366</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004016930899671004</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001120918495960336</v>
+        <v>0.001122213893514379</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0113782165102426</v>
+        <v>0.01250634352786066</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -2306,19 +2306,19 @@
         <v>25681</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17654</v>
+        <v>17045</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38168</v>
+        <v>37877</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02551530072655942</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01754038113413158</v>
+        <v>0.01693583283425454</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03792256342324265</v>
+        <v>0.03763315942370159</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -2327,19 +2327,19 @@
         <v>29331</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20261</v>
+        <v>19895</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42803</v>
+        <v>41433</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01531415707602793</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01057865697842876</v>
+        <v>0.01038752559995168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02234789156128366</v>
+        <v>0.02163251450452989</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>905174</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>898484</v>
+        <v>897459</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>907806</v>
+        <v>907805</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.995983069100329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9886217834897584</v>
+        <v>0.9874936564721394</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9988790815040397</v>
+        <v>0.9988777861064856</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>927</v>
@@ -2377,19 +2377,19 @@
         <v>980794</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>968307</v>
+        <v>968598</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>988821</v>
+        <v>989430</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9744846992734406</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9620774365767574</v>
+        <v>0.9623668405762981</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9824596188658684</v>
+        <v>0.9830641671657453</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1805</v>
@@ -2398,19 +2398,19 @@
         <v>1885969</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1872497</v>
+        <v>1873867</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1895039</v>
+        <v>1895405</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9846858429239721</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9776521084387164</v>
+        <v>0.9783674854954699</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9894213430215714</v>
+        <v>0.9896124744000484</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>3136</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8513</v>
+        <v>8442</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003806645115178625</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001231779352415765</v>
+        <v>0.001242254931430446</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0103344109365042</v>
+        <v>0.01024830817323209</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -2523,19 +2523,19 @@
         <v>19825</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12503</v>
+        <v>11657</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30749</v>
+        <v>30251</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02571105034426789</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01621475019293835</v>
+        <v>0.01511803096717519</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03987873460906238</v>
+        <v>0.03923244777142555</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -2544,19 +2544,19 @@
         <v>22960</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14428</v>
+        <v>13874</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33747</v>
+        <v>34317</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01439693331870501</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009046930299647241</v>
+        <v>0.008699467712501003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02116035913263708</v>
+        <v>0.02151812185313673</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>820623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>815246</v>
+        <v>815317</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>822744</v>
+        <v>822736</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9961933548848214</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9896655890634959</v>
+        <v>0.9897516918267678</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9987682206475843</v>
+        <v>0.9987577450685695</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>709</v>
@@ -2594,19 +2594,19 @@
         <v>751234</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>740310</v>
+        <v>740808</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>758556</v>
+        <v>759402</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9742889496557321</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9601212653909378</v>
+        <v>0.9607675522285745</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9837852498070617</v>
+        <v>0.9848819690328249</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1493</v>
@@ -2615,19 +2615,19 @@
         <v>1571858</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1561071</v>
+        <v>1560501</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1580390</v>
+        <v>1580944</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9856030666812949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.978839640867363</v>
+        <v>0.9784818781468633</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9909530697003528</v>
+        <v>0.9913005322874988</v>
       </c>
     </row>
     <row r="12">
@@ -2732,19 +2732,19 @@
         <v>4379</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1080</v>
+        <v>1053</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10468</v>
+        <v>9909</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008943221964761839</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002205559531759763</v>
+        <v>0.002151108892089681</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02137703171857015</v>
+        <v>0.02023512611270418</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -2753,19 +2753,19 @@
         <v>4379</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10885</v>
+        <v>10777</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004395303794547984</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001061565227354332</v>
+        <v>0.001053409178175077</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01092452358569785</v>
+        <v>0.01081618266374943</v>
       </c>
     </row>
     <row r="14">
@@ -2795,19 +2795,19 @@
         <v>485319</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>479230</v>
+        <v>479789</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>488618</v>
+        <v>488645</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9910567780352382</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9786229682814293</v>
+        <v>0.9797648738872958</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9977944404682402</v>
+        <v>0.9978488911079103</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>922</v>
@@ -2816,19 +2816,19 @@
         <v>992019</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>985513</v>
+        <v>985621</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>995340</v>
+        <v>995348</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.995604696205452</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9890754764143018</v>
+        <v>0.9891838173362506</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9989384347726457</v>
+        <v>0.9989465908218249</v>
       </c>
     </row>
     <row r="15">
@@ -2920,19 +2920,19 @@
         <v>14048</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7511</v>
+        <v>8213</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22707</v>
+        <v>23920</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004171854664181772</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0022304885255647</v>
+        <v>0.002439146497858089</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.006743479847126487</v>
+        <v>0.007103680606813971</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>115</v>
@@ -2941,19 +2941,19 @@
         <v>125068</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103716</v>
+        <v>106862</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>150088</v>
+        <v>150426</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03546229162851365</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02940800416016153</v>
+        <v>0.0303001103688847</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04255643857644923</v>
+        <v>0.04265224762223147</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -2962,19 +2962,19 @@
         <v>139116</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>118968</v>
+        <v>114822</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>165965</v>
+        <v>163583</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02017906087964441</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01725656934290334</v>
+        <v>0.01665523252610836</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02407359191832652</v>
+        <v>0.02372804019777633</v>
       </c>
     </row>
     <row r="17">
@@ -2991,19 +2991,19 @@
         <v>3353234</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3344575</v>
+        <v>3343362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3359771</v>
+        <v>3359069</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9958281453358182</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.993256520152874</v>
+        <v>0.992896319393186</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9977695114744355</v>
+        <v>0.997560853502142</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3207</v>
@@ -3012,19 +3012,19 @@
         <v>3401724</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3376704</v>
+        <v>3376366</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3423076</v>
+        <v>3419930</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9645377083714863</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9574435614235508</v>
+        <v>0.9573477523777686</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9705919958398385</v>
+        <v>0.9696998896311153</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6399</v>
@@ -3033,19 +3033,19 @@
         <v>6754959</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6728110</v>
+        <v>6730492</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6775107</v>
+        <v>6779253</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9798209391203556</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9759264080816735</v>
+        <v>0.9762719598022237</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9827434306570967</v>
+        <v>0.9833447674738914</v>
       </c>
     </row>
     <row r="18">
@@ -3377,19 +3377,19 @@
         <v>4934</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1708</v>
+        <v>1749</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11058</v>
+        <v>11278</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009949280900216361</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003443997799144564</v>
+        <v>0.003526520517122655</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02229918245755195</v>
+        <v>0.02274260805823211</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -3398,19 +3398,19 @@
         <v>44950</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35124</v>
+        <v>34615</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56022</v>
+        <v>55882</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07288815423336072</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05695620583872776</v>
+        <v>0.05612970190142885</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09084288233957605</v>
+        <v>0.09061608004563772</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -3419,19 +3419,19 @@
         <v>49883</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39088</v>
+        <v>39441</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63411</v>
+        <v>62173</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04483558630564381</v>
+        <v>0.0448355863056438</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03513241689008105</v>
+        <v>0.03545019108425523</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05699388206471463</v>
+        <v>0.05588138778519277</v>
       </c>
     </row>
     <row r="5">
@@ -3448,19 +3448,19 @@
         <v>490958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>484834</v>
+        <v>484614</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>494184</v>
+        <v>494143</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9900507190997837</v>
+        <v>0.9900507190997836</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9777008175424481</v>
+        <v>0.9772573919417681</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9965560022008555</v>
+        <v>0.9964734794828775</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>780</v>
@@ -3469,19 +3469,19 @@
         <v>571743</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>560671</v>
+        <v>560811</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>581569</v>
+        <v>582078</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9271118457666392</v>
+        <v>0.9271118457666391</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.909157117660424</v>
+        <v>0.9093839199543622</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9430437941612724</v>
+        <v>0.9438702980985709</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1227</v>
@@ -3490,19 +3490,19 @@
         <v>1062702</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1049174</v>
+        <v>1050412</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1073497</v>
+        <v>1073144</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.955164413694356</v>
+        <v>0.9551644136943562</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9430061179352854</v>
+        <v>0.9441186122148072</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9648675831099188</v>
+        <v>0.9645498089157448</v>
       </c>
     </row>
     <row r="6">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10971</v>
+        <v>11014</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002711532465349895</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01144951412022436</v>
+        <v>0.01149389873008179</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -3615,19 +3615,19 @@
         <v>52335</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41741</v>
+        <v>41890</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63912</v>
+        <v>65149</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04710700667159776</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03757164056600783</v>
+        <v>0.03770595669931868</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.057527598181248</v>
+        <v>0.05864124939722819</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -3636,19 +3636,19 @@
         <v>54933</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44369</v>
+        <v>43434</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67631</v>
+        <v>68568</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02654783836586984</v>
+        <v>0.02654783836586985</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02144260223590755</v>
+        <v>0.02099049931673356</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03268462554002884</v>
+        <v>0.0331372760809556</v>
       </c>
     </row>
     <row r="8">
@@ -3665,7 +3665,7 @@
         <v>955633</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>947260</v>
+        <v>947217</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>958231</v>
@@ -3674,7 +3674,7 @@
         <v>0.9972884675346501</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9885504858797756</v>
+        <v>0.9885061012699181</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3686,19 +3686,19 @@
         <v>1058638</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1047061</v>
+        <v>1045824</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1069232</v>
+        <v>1069083</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9528929933284022</v>
+        <v>0.9528929933284024</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9424724018187518</v>
+        <v>0.9413587506027721</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9624283594339922</v>
+        <v>0.9622940433006814</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2422</v>
@@ -3707,19 +3707,19 @@
         <v>2014270</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2001572</v>
+        <v>2000635</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2024834</v>
+        <v>2025769</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.97345216163413</v>
+        <v>0.9734521616341302</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9673153744599712</v>
+        <v>0.966862723919044</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9785573977640926</v>
+        <v>0.9790095006832664</v>
       </c>
     </row>
     <row r="9">
@@ -3814,16 +3814,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4585</v>
+        <v>4274</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.001160702009916213</v>
+        <v>0.001160702009916212</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.004386202509942777</v>
+        <v>0.004088999035384487</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -3832,19 +3832,19 @@
         <v>34535</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26679</v>
+        <v>26505</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45441</v>
+        <v>44715</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03298484605714417</v>
+        <v>0.03298484605714416</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0254813144156749</v>
+        <v>0.02531582165580617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04340198345476275</v>
+        <v>0.04270790425042909</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -3853,19 +3853,19 @@
         <v>35748</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27308</v>
+        <v>27335</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44907</v>
+        <v>46820</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0170857162803451</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01305203163656298</v>
+        <v>0.01306460360702901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02146302136538686</v>
+        <v>0.02237739938158521</v>
       </c>
     </row>
     <row r="11">
@@ -3882,16 +3882,16 @@
         <v>1044076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1040704</v>
+        <v>1041015</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>1045289</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9988392979900839</v>
+        <v>0.9988392979900838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9956137974900566</v>
+        <v>0.9959110009646153</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3903,19 +3903,19 @@
         <v>1012456</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1001550</v>
+        <v>1002276</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1020312</v>
+        <v>1020486</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.967015153942856</v>
+        <v>0.9670151539428559</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9565980165452374</v>
+        <v>0.9572920957495709</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9745186855843254</v>
+        <v>0.9746841783441939</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2480</v>
@@ -3924,19 +3924,19 @@
         <v>2056531</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2047372</v>
+        <v>2045459</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2064971</v>
+        <v>2064944</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9829142837196549</v>
+        <v>0.9829142837196548</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9785369786346132</v>
+        <v>0.9776226006184143</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.986947968363437</v>
+        <v>0.986935396392971</v>
       </c>
     </row>
     <row r="12">
@@ -4028,19 +4028,19 @@
         <v>4924</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1732</v>
+        <v>1991</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10493</v>
+        <v>10661</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.005048523347291169</v>
+        <v>0.00504852334729117</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001776002184849067</v>
+        <v>0.002041724658395254</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01075831955117105</v>
+        <v>0.01093074485810957</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -4049,19 +4049,19 @@
         <v>22064</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15642</v>
+        <v>15873</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29809</v>
+        <v>29778</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02442172036143903</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01731326169985185</v>
+        <v>0.01756850752911214</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03299390795726639</v>
+        <v>0.03295896338254052</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -4070,19 +4070,19 @@
         <v>26988</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19301</v>
+        <v>19977</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35535</v>
+        <v>36303</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01436458661208748</v>
+        <v>0.01436458661208747</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01027318016349691</v>
+        <v>0.01063278792362854</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.018913766626764</v>
+        <v>0.01932230067060549</v>
       </c>
     </row>
     <row r="14">
@@ -4099,19 +4099,19 @@
         <v>970418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>964849</v>
+        <v>964681</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>973610</v>
+        <v>973351</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9949514766527089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.989241680448829</v>
+        <v>0.9890692551418906</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.998223997815151</v>
+        <v>0.9979582753416048</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1274</v>
@@ -4120,19 +4120,19 @@
         <v>881409</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>873664</v>
+        <v>873695</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>887831</v>
+        <v>887600</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.975578279638561</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.967006092042734</v>
+        <v>0.9670410366174595</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9826867383001482</v>
+        <v>0.9824314924708879</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2214</v>
@@ -4141,19 +4141,19 @@
         <v>1851827</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1843280</v>
+        <v>1842512</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1859514</v>
+        <v>1858838</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9856354133879126</v>
+        <v>0.9856354133879125</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9810862333732361</v>
+        <v>0.980677699329394</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9897268198365031</v>
+        <v>0.9893672120763715</v>
       </c>
     </row>
     <row r="15">
@@ -4245,19 +4245,19 @@
         <v>13669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7666</v>
+        <v>7558</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23173</v>
+        <v>24234</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003933904283723965</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002206151023679687</v>
+        <v>0.002175160968969923</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.006669055537746562</v>
+        <v>0.006974402916915593</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>254</v>
@@ -4266,19 +4266,19 @@
         <v>153883</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>135867</v>
+        <v>135404</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>173561</v>
+        <v>174278</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0418374137732899</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03693926013608912</v>
+        <v>0.03681334179266894</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0471873918545942</v>
+        <v>0.04738215800441378</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>269</v>
@@ -4287,19 +4287,19 @@
         <v>167553</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>146300</v>
+        <v>148330</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>188714</v>
+        <v>191274</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02342451050009088</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02045335452865759</v>
+        <v>0.02073704886044537</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02638298839543985</v>
+        <v>0.0267407845076286</v>
       </c>
     </row>
     <row r="17">
@@ -4316,19 +4316,19 @@
         <v>3461084</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3451580</v>
+        <v>3450519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3467087</v>
+        <v>3467195</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.996066095716276</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9933309444622532</v>
+        <v>0.9930255970830845</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.99779384897632</v>
+        <v>0.99782483903103</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5024</v>
@@ -4337,19 +4337,19 @@
         <v>3524247</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3504569</v>
+        <v>3503852</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3542263</v>
+        <v>3542726</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.95816258622671</v>
+        <v>0.9581625862267101</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.952812608145406</v>
+        <v>0.9526178419955864</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9630607398639112</v>
+        <v>0.9631866582073313</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8343</v>
@@ -4358,19 +4358,19 @@
         <v>6985330</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6964169</v>
+        <v>6961609</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7006583</v>
+        <v>7004553</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.976575489499909</v>
+        <v>0.9765754894999091</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9736170116045603</v>
+        <v>0.9732592154923716</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9795466454713424</v>
+        <v>0.9792629511395551</v>
       </c>
     </row>
     <row r="18">
